--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1AF7F-DEB7-48DA-A690-E2F910A97F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EAA5FA-18B5-4836-A6AD-6632E4052D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="705" windowWidth="28515" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="645" windowWidth="27375" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list-adcs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14069" uniqueCount="2988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14069" uniqueCount="3001">
   <si>
     <t>seq</t>
   </si>
@@ -8988,6 +8988,48 @@
   <si>
     <t>Common</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tax data in transaction currency No.2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tax data in transaction currency No.3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tax data in transaction currency No.4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Business Segment HierAccounts Receivableschy</t>
+  </si>
+  <si>
+    <t>ChAccounts Receivablest Of Accounts</t>
+  </si>
+  <si>
+    <t>Accounts Receivables Cash Application</t>
+  </si>
+  <si>
+    <t>Accounts Receivables Adjustment</t>
+  </si>
+  <si>
+    <t>Accounts Receivables Adjustment Line</t>
+  </si>
+  <si>
+    <t>PPE DepAccounts Receivablestment Allocation</t>
+  </si>
+  <si>
+    <t>PrimAccounts Receivablesy Contact</t>
+  </si>
+  <si>
+    <t>Accounts Payables Adjustment</t>
+  </si>
+  <si>
+    <t>Accounts Payables Adjustment Line</t>
+  </si>
+  <si>
+    <t>Accounts Payables Cash Application</t>
   </si>
 </sst>
 </file>
@@ -9970,9 +10012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1145" sqref="B1145"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D646" sqref="D646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12588,7 +12630,7 @@
         <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>2991</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -12617,7 +12659,7 @@
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>2991</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -12673,7 +12715,7 @@
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>2991</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -15911,7 +15953,7 @@
         <v>32</v>
       </c>
       <c r="D153" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -15940,7 +15982,7 @@
         <v>32</v>
       </c>
       <c r="D154" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -15987,7 +16029,7 @@
         <v>32</v>
       </c>
       <c r="D155" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -16034,7 +16076,7 @@
         <v>32</v>
       </c>
       <c r="D156" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -16081,7 +16123,7 @@
         <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E157">
         <v>4</v>
@@ -16128,7 +16170,7 @@
         <v>32</v>
       </c>
       <c r="D158" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -16175,7 +16217,7 @@
         <v>32</v>
       </c>
       <c r="D159" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E159">
         <v>6</v>
@@ -16222,7 +16264,7 @@
         <v>32</v>
       </c>
       <c r="D160" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E160">
         <v>7</v>
@@ -16266,7 +16308,7 @@
         <v>32</v>
       </c>
       <c r="D161" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E161">
         <v>8</v>
@@ -16319,7 +16361,7 @@
         <v>32</v>
       </c>
       <c r="D162" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E162">
         <v>9</v>
@@ -16363,7 +16405,7 @@
         <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E163">
         <v>10</v>
@@ -16407,7 +16449,7 @@
         <v>32</v>
       </c>
       <c r="D164" t="s">
-        <v>92</v>
+        <v>2992</v>
       </c>
       <c r="E164">
         <v>11</v>
@@ -25820,7 +25862,7 @@
         <v>35</v>
       </c>
       <c r="D372" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -25849,7 +25891,7 @@
         <v>35</v>
       </c>
       <c r="D373" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -25896,7 +25938,7 @@
         <v>35</v>
       </c>
       <c r="D374" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E374">
         <v>2</v>
@@ -25952,7 +25994,7 @@
         <v>35</v>
       </c>
       <c r="D375" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E375">
         <v>3</v>
@@ -25999,7 +26041,7 @@
         <v>35</v>
       </c>
       <c r="D376" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E376">
         <v>4</v>
@@ -26055,7 +26097,7 @@
         <v>35</v>
       </c>
       <c r="D377" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E377">
         <v>5</v>
@@ -26111,7 +26153,7 @@
         <v>35</v>
       </c>
       <c r="D378" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E378">
         <v>6</v>
@@ -26167,7 +26209,7 @@
         <v>35</v>
       </c>
       <c r="D379" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E379">
         <v>7</v>
@@ -26220,7 +26262,7 @@
         <v>35</v>
       </c>
       <c r="D380" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E380">
         <v>8</v>
@@ -26261,7 +26303,7 @@
         <v>35</v>
       </c>
       <c r="D381" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E381">
         <v>9</v>
@@ -26308,7 +26350,7 @@
         <v>35</v>
       </c>
       <c r="D382" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E382">
         <v>10</v>
@@ -26364,7 +26406,7 @@
         <v>35</v>
       </c>
       <c r="D383" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E383">
         <v>11</v>
@@ -26420,7 +26462,7 @@
         <v>35</v>
       </c>
       <c r="D384" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E384">
         <v>12</v>
@@ -26461,7 +26503,7 @@
         <v>35</v>
       </c>
       <c r="D385" t="s">
-        <v>75</v>
+        <v>2993</v>
       </c>
       <c r="E385">
         <v>13</v>
@@ -26508,7 +26550,7 @@
         <v>35</v>
       </c>
       <c r="D386" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -26537,7 +26579,7 @@
         <v>35</v>
       </c>
       <c r="D387" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -26584,7 +26626,7 @@
         <v>35</v>
       </c>
       <c r="D388" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E388">
         <v>2</v>
@@ -26628,7 +26670,7 @@
         <v>35</v>
       </c>
       <c r="D389" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E389">
         <v>3</v>
@@ -26675,7 +26717,7 @@
         <v>35</v>
       </c>
       <c r="D390" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E390">
         <v>4</v>
@@ -26722,7 +26764,7 @@
         <v>35</v>
       </c>
       <c r="D391" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E391">
         <v>5</v>
@@ -26778,7 +26820,7 @@
         <v>35</v>
       </c>
       <c r="D392" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E392">
         <v>6</v>
@@ -26834,7 +26876,7 @@
         <v>35</v>
       </c>
       <c r="D393" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E393">
         <v>7</v>
@@ -26890,7 +26932,7 @@
         <v>35</v>
       </c>
       <c r="D394" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E394">
         <v>9</v>
@@ -26937,7 +26979,7 @@
         <v>35</v>
       </c>
       <c r="D395" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E395">
         <v>10</v>
@@ -26993,7 +27035,7 @@
         <v>35</v>
       </c>
       <c r="D396" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E396">
         <v>11</v>
@@ -27034,7 +27076,7 @@
         <v>35</v>
       </c>
       <c r="D397" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E397">
         <v>12</v>
@@ -27075,7 +27117,7 @@
         <v>35</v>
       </c>
       <c r="D398" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E398">
         <v>13</v>
@@ -27113,7 +27155,7 @@
         <v>35</v>
       </c>
       <c r="D399" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E399">
         <v>14</v>
@@ -27169,7 +27211,7 @@
         <v>35</v>
       </c>
       <c r="D400" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E400">
         <v>15</v>
@@ -27225,7 +27267,7 @@
         <v>35</v>
       </c>
       <c r="D401" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E401">
         <v>16</v>
@@ -27272,7 +27314,7 @@
         <v>35</v>
       </c>
       <c r="D402" t="s">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="E402">
         <v>17</v>
@@ -27310,7 +27352,7 @@
         <v>35</v>
       </c>
       <c r="D403" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -27339,7 +27381,7 @@
         <v>35</v>
       </c>
       <c r="D404" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -27395,7 +27437,7 @@
         <v>35</v>
       </c>
       <c r="D405" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E405">
         <v>2</v>
@@ -27442,7 +27484,7 @@
         <v>35</v>
       </c>
       <c r="D406" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E406">
         <v>3</v>
@@ -27489,7 +27531,7 @@
         <v>35</v>
       </c>
       <c r="D407" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E407">
         <v>4</v>
@@ -27545,7 +27587,7 @@
         <v>35</v>
       </c>
       <c r="D408" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E408">
         <v>5</v>
@@ -27601,7 +27643,7 @@
         <v>35</v>
       </c>
       <c r="D409" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E409">
         <v>6</v>
@@ -27657,7 +27699,7 @@
         <v>35</v>
       </c>
       <c r="D410" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E410">
         <v>7</v>
@@ -27698,7 +27740,7 @@
         <v>35</v>
       </c>
       <c r="D411" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E411">
         <v>8</v>
@@ -27739,7 +27781,7 @@
         <v>35</v>
       </c>
       <c r="D412" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E412">
         <v>9</v>
@@ -27795,7 +27837,7 @@
         <v>35</v>
       </c>
       <c r="D413" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E413">
         <v>10</v>
@@ -27851,7 +27893,7 @@
         <v>35</v>
       </c>
       <c r="D414" t="s">
-        <v>79</v>
+        <v>2995</v>
       </c>
       <c r="E414">
         <v>11</v>
@@ -29210,6 +29252,9 @@
       <c r="F443" t="s">
         <v>28</v>
       </c>
+      <c r="G443" t="s">
+        <v>2130</v>
+      </c>
       <c r="H443" t="s">
         <v>43</v>
       </c>
@@ -34334,9 +34379,6 @@
       <c r="I554" t="s">
         <v>397</v>
       </c>
-      <c r="J554" t="s">
-        <v>397</v>
-      </c>
       <c r="L554" t="s">
         <v>532</v>
       </c>
@@ -36160,7 +36202,7 @@
         <v>35</v>
       </c>
       <c r="D592" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E592">
         <v>0</v>
@@ -36189,7 +36231,7 @@
         <v>35</v>
       </c>
       <c r="D593" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E593">
         <v>1</v>
@@ -36236,7 +36278,7 @@
         <v>35</v>
       </c>
       <c r="D594" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E594">
         <v>2</v>
@@ -36292,7 +36334,7 @@
         <v>35</v>
       </c>
       <c r="D595" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E595">
         <v>4</v>
@@ -36339,7 +36381,7 @@
         <v>35</v>
       </c>
       <c r="D596" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E596">
         <v>5</v>
@@ -36395,7 +36437,7 @@
         <v>35</v>
       </c>
       <c r="D597" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E597">
         <v>6</v>
@@ -36451,7 +36493,7 @@
         <v>35</v>
       </c>
       <c r="D598" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E598">
         <v>7</v>
@@ -36504,7 +36546,7 @@
         <v>35</v>
       </c>
       <c r="D599" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E599">
         <v>8</v>
@@ -36557,7 +36599,7 @@
         <v>35</v>
       </c>
       <c r="D600" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E600">
         <v>9</v>
@@ -36598,7 +36640,7 @@
         <v>35</v>
       </c>
       <c r="D601" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E601">
         <v>10</v>
@@ -36645,7 +36687,7 @@
         <v>35</v>
       </c>
       <c r="D602" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E602">
         <v>11</v>
@@ -36701,7 +36743,7 @@
         <v>35</v>
       </c>
       <c r="D603" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E603">
         <v>12</v>
@@ -36757,7 +36799,7 @@
         <v>35</v>
       </c>
       <c r="D604" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E604">
         <v>13</v>
@@ -36798,7 +36840,7 @@
         <v>35</v>
       </c>
       <c r="D605" t="s">
-        <v>59</v>
+        <v>3000</v>
       </c>
       <c r="E605">
         <v>14</v>
@@ -36845,7 +36887,7 @@
         <v>35</v>
       </c>
       <c r="D606" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E606">
         <v>0</v>
@@ -36874,7 +36916,7 @@
         <v>35</v>
       </c>
       <c r="D607" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E607">
         <v>1</v>
@@ -36921,7 +36963,7 @@
         <v>35</v>
       </c>
       <c r="D608" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E608">
         <v>2</v>
@@ -36968,7 +37010,7 @@
         <v>35</v>
       </c>
       <c r="D609" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E609">
         <v>3</v>
@@ -37015,7 +37057,7 @@
         <v>35</v>
       </c>
       <c r="D610" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E610">
         <v>4</v>
@@ -37059,7 +37101,7 @@
         <v>35</v>
       </c>
       <c r="D611" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E611">
         <v>5</v>
@@ -37115,7 +37157,7 @@
         <v>35</v>
       </c>
       <c r="D612" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E612">
         <v>6</v>
@@ -37171,7 +37213,7 @@
         <v>35</v>
       </c>
       <c r="D613" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E613">
         <v>7</v>
@@ -37227,7 +37269,7 @@
         <v>35</v>
       </c>
       <c r="D614" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E614">
         <v>8</v>
@@ -37274,7 +37316,7 @@
         <v>35</v>
       </c>
       <c r="D615" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E615">
         <v>9</v>
@@ -37330,7 +37372,7 @@
         <v>35</v>
       </c>
       <c r="D616" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E616">
         <v>10</v>
@@ -37371,7 +37413,7 @@
         <v>35</v>
       </c>
       <c r="D617" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E617">
         <v>11</v>
@@ -37412,7 +37454,7 @@
         <v>35</v>
       </c>
       <c r="D618" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E618">
         <v>12</v>
@@ -37453,7 +37495,7 @@
         <v>35</v>
       </c>
       <c r="D619" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E619">
         <v>13</v>
@@ -37509,7 +37551,7 @@
         <v>35</v>
       </c>
       <c r="D620" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E620">
         <v>14</v>
@@ -37565,7 +37607,7 @@
         <v>35</v>
       </c>
       <c r="D621" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E621">
         <v>15</v>
@@ -37612,7 +37654,7 @@
         <v>35</v>
       </c>
       <c r="D622" t="s">
-        <v>61</v>
+        <v>2998</v>
       </c>
       <c r="E622">
         <v>16</v>
@@ -37650,7 +37692,7 @@
         <v>35</v>
       </c>
       <c r="D623" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E623">
         <v>0</v>
@@ -37679,7 +37721,7 @@
         <v>35</v>
       </c>
       <c r="D624" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E624">
         <v>1</v>
@@ -37735,7 +37777,7 @@
         <v>35</v>
       </c>
       <c r="D625" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E625">
         <v>2</v>
@@ -37782,7 +37824,7 @@
         <v>35</v>
       </c>
       <c r="D626" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E626">
         <v>3</v>
@@ -37829,7 +37871,7 @@
         <v>35</v>
       </c>
       <c r="D627" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E627">
         <v>4</v>
@@ -37885,7 +37927,7 @@
         <v>35</v>
       </c>
       <c r="D628" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E628">
         <v>5</v>
@@ -37941,7 +37983,7 @@
         <v>35</v>
       </c>
       <c r="D629" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E629">
         <v>6</v>
@@ -37997,7 +38039,7 @@
         <v>35</v>
       </c>
       <c r="D630" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E630">
         <v>7</v>
@@ -38038,7 +38080,7 @@
         <v>35</v>
       </c>
       <c r="D631" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E631">
         <v>8</v>
@@ -38079,7 +38121,7 @@
         <v>35</v>
       </c>
       <c r="D632" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E632">
         <v>9</v>
@@ -38135,7 +38177,7 @@
         <v>35</v>
       </c>
       <c r="D633" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E633">
         <v>10</v>
@@ -38191,7 +38233,7 @@
         <v>35</v>
       </c>
       <c r="D634" t="s">
-        <v>63</v>
+        <v>2999</v>
       </c>
       <c r="E634">
         <v>11</v>
@@ -56292,7 +56334,7 @@
         <v>37</v>
       </c>
       <c r="D1025" t="s">
-        <v>149</v>
+        <v>2996</v>
       </c>
       <c r="E1025">
         <v>0</v>
@@ -56321,7 +56363,7 @@
         <v>37</v>
       </c>
       <c r="D1026" t="s">
-        <v>149</v>
+        <v>2996</v>
       </c>
       <c r="E1026">
         <v>1</v>
@@ -56356,7 +56398,7 @@
         <v>37</v>
       </c>
       <c r="D1027" t="s">
-        <v>149</v>
+        <v>2996</v>
       </c>
       <c r="E1027">
         <v>2</v>
@@ -56409,7 +56451,7 @@
         <v>37</v>
       </c>
       <c r="D1028" t="s">
-        <v>149</v>
+        <v>2996</v>
       </c>
       <c r="E1028">
         <v>3</v>
@@ -56453,7 +56495,7 @@
         <v>37</v>
       </c>
       <c r="D1029" t="s">
-        <v>149</v>
+        <v>2996</v>
       </c>
       <c r="E1029">
         <v>4</v>
@@ -56509,7 +56551,7 @@
         <v>37</v>
       </c>
       <c r="D1030" t="s">
-        <v>149</v>
+        <v>2996</v>
       </c>
       <c r="E1030">
         <v>5</v>
@@ -59383,7 +59425,7 @@
         <v>2987</v>
       </c>
       <c r="D1096" t="s">
-        <v>496</v>
+        <v>2997</v>
       </c>
       <c r="E1096">
         <v>0</v>
@@ -59412,7 +59454,7 @@
         <v>2987</v>
       </c>
       <c r="D1097" t="s">
-        <v>496</v>
+        <v>2997</v>
       </c>
       <c r="E1097">
         <v>1</v>
@@ -59459,7 +59501,7 @@
         <v>2987</v>
       </c>
       <c r="D1098" t="s">
-        <v>496</v>
+        <v>2997</v>
       </c>
       <c r="E1098">
         <v>2</v>
@@ -59506,7 +59548,7 @@
         <v>2987</v>
       </c>
       <c r="D1099" t="s">
-        <v>496</v>
+        <v>2997</v>
       </c>
       <c r="E1099">
         <v>3</v>
@@ -60030,7 +60072,7 @@
         <v>537</v>
       </c>
       <c r="O1112" t="s">
-        <v>551</v>
+        <v>2988</v>
       </c>
       <c r="P1112" t="s">
         <v>552</v>
@@ -60071,7 +60113,7 @@
         <v>537</v>
       </c>
       <c r="O1113" t="s">
-        <v>551</v>
+        <v>2989</v>
       </c>
       <c r="P1113" t="s">
         <v>552</v>
@@ -60112,7 +60154,7 @@
         <v>537</v>
       </c>
       <c r="O1114" t="s">
-        <v>551</v>
+        <v>2990</v>
       </c>
       <c r="P1114" t="s">
         <v>552</v>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B711071A-84AC-4BA0-91FD-31F69D4D1624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA3528-0618-4F25-B8E7-4A0B4269B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="570" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13864" uniqueCount="2962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13864" uniqueCount="2960">
   <si>
     <t>seq</t>
   </si>
@@ -8922,15 +8922,7 @@
     <t xml:space="preserve"> Currency Amount. Currency. Currency</t>
   </si>
   <si>
-    <t>Amount</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Monetary Amount</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Currency</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9915,8 +9907,8 @@
   <dimension ref="A1:W1118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1079" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1119" sqref="A1119"/>
+      <pane ySplit="1" topLeftCell="A1077" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -59507,7 +59499,7 @@
         <v>375</v>
       </c>
       <c r="L1095" t="s">
-        <v>597</v>
+        <v>2959</v>
       </c>
       <c r="O1095" t="s">
         <v>377</v>
@@ -60362,7 +60354,7 @@
         <v>2949</v>
       </c>
       <c r="D1116" t="s">
-        <v>2960</v>
+        <v>597</v>
       </c>
       <c r="E1116">
         <v>0</v>
@@ -60394,7 +60386,7 @@
         <v>2949</v>
       </c>
       <c r="D1117" t="s">
-        <v>2959</v>
+        <v>597</v>
       </c>
       <c r="E1117">
         <v>1</v>
@@ -60435,7 +60427,7 @@
         <v>2949</v>
       </c>
       <c r="D1118" t="s">
-        <v>2961</v>
+        <v>597</v>
       </c>
       <c r="E1118">
         <v>2</v>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA3528-0618-4F25-B8E7-4A0B4269B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABE79D-5007-4713-BDDC-358EB7C8256D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="570" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13864" uniqueCount="2960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13865" uniqueCount="2961">
   <si>
     <t>seq</t>
   </si>
@@ -8923,6 +8923,10 @@
   </si>
   <si>
     <t>Monetary Amount</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Local Tax N</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9907,8 +9911,8 @@
   <dimension ref="A1:W1118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1077" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1136" sqref="G1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30512,6 +30516,9 @@
       <c r="F468" t="s">
         <v>28</v>
       </c>
+      <c r="G468" t="s">
+        <v>2960</v>
+      </c>
       <c r="H468" t="s">
         <v>275</v>
       </c>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF34D215-292C-4816-A9A1-169CD7E27EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FDF0B-34ED-4FC1-BBD9-81AE66991FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="570" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13865" uniqueCount="2972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13865" uniqueCount="2974">
   <si>
     <t>seq</t>
   </si>
@@ -8978,6 +8978,14 @@
   </si>
   <si>
     <t>Fiscal Period ID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RFBIE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9963,7 +9971,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
+      <selection pane="bottomLeft" activeCell="L1130" sqref="L1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26137,7 +26145,7 @@
         <v>27</v>
       </c>
       <c r="F375" t="s">
-        <v>175</v>
+        <v>2972</v>
       </c>
       <c r="G375" t="s">
         <v>848</v>
@@ -26148,8 +26156,8 @@
       <c r="I375" t="s">
         <v>848</v>
       </c>
-      <c r="J375" t="s">
-        <v>170</v>
+      <c r="N375" t="s">
+        <v>2973</v>
       </c>
       <c r="O375" t="s">
         <v>849</v>
@@ -27558,7 +27566,7 @@
         <v>22</v>
       </c>
       <c r="F406" t="s">
-        <v>175</v>
+        <v>2972</v>
       </c>
       <c r="G406" t="s">
         <v>848</v>
@@ -27569,8 +27577,8 @@
       <c r="I406" t="s">
         <v>848</v>
       </c>
-      <c r="J406" t="s">
-        <v>170</v>
+      <c r="N406" t="s">
+        <v>2973</v>
       </c>
       <c r="O406" t="s">
         <v>849</v>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FDF0B-34ED-4FC1-BBD9-81AE66991FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17B8BEC-CC0F-405B-B7E1-EE1AF72E1666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="570" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13865" uniqueCount="2974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13874" uniqueCount="2979">
   <si>
     <t>seq</t>
   </si>
@@ -8986,6 +8986,26 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BBIE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Any Master</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Data elements under X</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>X represents any master.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Master Files</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9967,11 +9987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1118"/>
+  <dimension ref="A1:W1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1130" sqref="L1130"/>
+      <pane ySplit="1" topLeftCell="A1091" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1127" sqref="C1127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -60526,6 +60546,49 @@
         <v>325</v>
       </c>
     </row>
+    <row r="1119" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1119">
+        <v>2118</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E1119">
+        <v>0</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>2975</v>
+      </c>
+      <c r="O1119" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1120">
+        <v>2119</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E1120">
+        <v>1</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>2976</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W1118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W1112">

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17B8BEC-CC0F-405B-B7E1-EE1AF72E1666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B42FB7-989B-45E8-BA8B-1CE79CD09E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="570" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13874" uniqueCount="2979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13880" uniqueCount="2980">
   <si>
     <t>seq</t>
   </si>
@@ -8997,15 +8997,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Data elements under X</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>X represents any master.</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Master Files</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Data representations defined under X</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Any data elements defined under X</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9991,7 +9995,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1091" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1127" sqref="C1127"/>
+      <selection pane="bottomLeft" activeCell="L1124" sqref="L1124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -60551,7 +60555,7 @@
         <v>2118</v>
       </c>
       <c r="B1119" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D1119" t="s">
         <v>2973</v>
@@ -60565,8 +60569,14 @@
       <c r="G1119" t="s">
         <v>2975</v>
       </c>
+      <c r="H1119" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I1119" t="s">
+        <v>2940</v>
+      </c>
       <c r="O1119" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="1120" spans="1:23" x14ac:dyDescent="0.4">
@@ -60574,7 +60584,7 @@
         <v>2119</v>
       </c>
       <c r="B1120" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D1120" t="s">
         <v>2973</v>
@@ -60586,7 +60596,19 @@
         <v>2974</v>
       </c>
       <c r="G1120" t="s">
-        <v>2976</v>
+        <v>2979</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I1120" t="s">
+        <v>2979</v>
+      </c>
+      <c r="J1120" t="s">
+        <v>2978</v>
+      </c>
+      <c r="O1120" t="s">
+        <v>2979</v>
       </c>
     </row>
   </sheetData>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{094E5A28-BC2B-430D-BFE4-3028D574EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0805B1-8611-4CB3-9AE0-84C1B9BCB0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="690" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1425" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list-adcs" sheetId="1" r:id="rId1"/>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0805B1-8611-4CB3-9AE0-84C1B9BCB0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7C9FF-08B5-4D6A-9319-981738BD2E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1425" windowWidth="24930" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="2977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="2987">
   <si>
     <t>seq</t>
   </si>
@@ -8991,6 +8991,41 @@
   </si>
   <si>
     <t>Billing Address</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_Header</t>
+  </si>
+  <si>
+    <t>_Header</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_Master Files</t>
+  </si>
+  <si>
+    <t>_Ledger Entrues</t>
+  </si>
+  <si>
+    <t>_Master Files</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_Ledger Entrues</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_Source Documents</t>
+  </si>
+  <si>
+    <t>_Source Documents</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>_Code Lists</t>
+  </si>
+  <si>
+    <t>_Code Lists</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9975,8 +10010,8 @@
   <dimension ref="A1:W1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1130" sqref="I1130"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10124,7 +10159,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>2978</v>
       </c>
       <c r="P3" t="s">
         <v>31</v>
@@ -10156,7 +10191,7 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>2981</v>
       </c>
       <c r="P4" t="s">
         <v>34</v>
@@ -10188,7 +10223,7 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>2982</v>
       </c>
       <c r="P5" t="s">
         <v>36</v>
@@ -10220,7 +10255,7 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>2984</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -10252,7 +10287,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>2986</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
@@ -10266,7 +10301,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>2977</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10295,7 +10330,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>2977</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -10327,7 +10362,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -10356,7 +10391,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10388,7 +10423,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -10420,7 +10455,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -10452,7 +10487,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -10484,7 +10519,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -10516,7 +10551,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -10548,7 +10583,7 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -10580,7 +10615,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -10612,7 +10647,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -10644,7 +10679,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -10676,7 +10711,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -10708,7 +10743,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -10740,7 +10775,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -10772,7 +10807,7 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E24">
         <v>14</v>
@@ -10804,7 +10839,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E25">
         <v>15</v>
@@ -10836,7 +10871,7 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E26">
         <v>16</v>
@@ -10868,7 +10903,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E27">
         <v>17</v>
@@ -10900,7 +10935,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>2979</v>
       </c>
       <c r="E28">
         <v>18</v>
@@ -10932,7 +10967,7 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -10961,7 +10996,7 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10993,7 +11028,7 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -11025,7 +11060,7 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -11057,7 +11092,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -11089,7 +11124,7 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -11121,7 +11156,7 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -11153,7 +11188,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -11185,7 +11220,7 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -11217,7 +11252,7 @@
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -11249,7 +11284,7 @@
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -11281,7 +11316,7 @@
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -11313,7 +11348,7 @@
         <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -11345,7 +11380,7 @@
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -11377,7 +11412,7 @@
         <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>2980</v>
       </c>
       <c r="E43">
         <v>11</v>
@@ -11409,7 +11444,7 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -11438,7 +11473,7 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -11470,7 +11505,7 @@
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -11502,7 +11537,7 @@
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -11534,7 +11569,7 @@
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -11566,7 +11601,7 @@
         <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -11598,7 +11633,7 @@
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -11630,7 +11665,7 @@
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E51">
         <v>7</v>
@@ -11662,7 +11697,7 @@
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E52">
         <v>8</v>
@@ -11694,7 +11729,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E53">
         <v>9</v>
@@ -11726,7 +11761,7 @@
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -11758,7 +11793,7 @@
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E55">
         <v>11</v>
@@ -11790,7 +11825,7 @@
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E56">
         <v>12</v>
@@ -11822,7 +11857,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E57">
         <v>13</v>
@@ -11854,7 +11889,7 @@
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E58">
         <v>14</v>
@@ -11886,7 +11921,7 @@
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E59">
         <v>15</v>
@@ -11918,7 +11953,7 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E60">
         <v>16</v>
@@ -11950,7 +11985,7 @@
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E61">
         <v>17</v>
@@ -11982,7 +12017,7 @@
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E62">
         <v>18</v>
@@ -12014,7 +12049,7 @@
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>2983</v>
       </c>
       <c r="E63">
         <v>19</v>
@@ -12046,7 +12081,7 @@
         <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>2986</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -12075,7 +12110,7 @@
         <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -12107,7 +12142,7 @@
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -12139,7 +12174,7 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -12171,7 +12206,7 @@
         <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -12203,7 +12238,7 @@
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -12235,7 +12270,7 @@
         <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -12267,7 +12302,7 @@
         <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E71">
         <v>8</v>
@@ -12299,7 +12334,7 @@
         <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E72">
         <v>9</v>
@@ -12331,7 +12366,7 @@
         <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -12363,7 +12398,7 @@
         <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>2985</v>
       </c>
       <c r="E74">
         <v>5</v>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37396B-ADF0-40CF-A975-EC5D27250631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CAF9E5-46BE-4A33-BF1C-90695570FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="2966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="2967">
   <si>
     <t>seq</t>
   </si>
@@ -8921,6 +8921,10 @@
   </si>
   <si>
     <t>Data representations defined under X</t>
+  </si>
+  <si>
+    <t>Address data</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -9913,7 +9917,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="L1132" sqref="L1132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9922,7 +9926,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
     <col min="8" max="8" width="4.75" customWidth="1"/>
     <col min="9" max="9" width="27.875" customWidth="1"/>
     <col min="12" max="12" width="20.25" customWidth="1"/>
@@ -11313,7 +11317,7 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>29</v>
@@ -12299,7 +12303,7 @@
         <v>45</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
         <v>29</v>
@@ -57976,7 +57980,7 @@
         <v>27</v>
       </c>
       <c r="O1059" t="s">
-        <v>2804</v>
+        <v>2966</v>
       </c>
       <c r="P1059" t="s">
         <v>2805</v>
@@ -58284,7 +58288,7 @@
         <v>25</v>
       </c>
       <c r="G1066" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1066" t="s">
         <v>52</v>
@@ -58319,7 +58323,7 @@
         <v>29</v>
       </c>
       <c r="G1067" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1067" t="s">
         <v>26</v>
@@ -58366,7 +58370,7 @@
         <v>25</v>
       </c>
       <c r="G1068" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H1068" t="s">
         <v>52</v>
@@ -58401,7 +58405,7 @@
         <v>29</v>
       </c>
       <c r="G1069" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H1069" t="s">
         <v>26</v>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CAF9E5-46BE-4A33-BF1C-90695570FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A4252-AB21-43A6-A663-CD1FF6F77C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list-adcs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="2967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13871" uniqueCount="2969">
   <si>
     <t>seq</t>
   </si>
@@ -8518,21 +8518,9 @@
     <t>gl-bus:identifierCountry*</t>
   </si>
   <si>
-    <t>Line 1 of the organization's physical address.</t>
-  </si>
-  <si>
-    <t>Physical_ Address.Street Address 1. Text</t>
-  </si>
-  <si>
     <t>Billing address data</t>
   </si>
   <si>
-    <t>Line 1 of the organization's blling address.</t>
-  </si>
-  <si>
-    <t>Billing_ Address.Street Address 1. Text</t>
-  </si>
-  <si>
     <t>Primary contact information</t>
   </si>
   <si>
@@ -8924,6 +8912,30 @@
   </si>
   <si>
     <t>Address data</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Organization's physical address.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Organization's blling address.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Physical Address. Details</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Billing Address. Details</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Physical Address. Associated. Address</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Billing Address.  Associated. Address</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -9566,7 +9578,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -9577,7 +9589,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9591,14 +9603,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9914,10 +9919,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1059" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L1132" sqref="L1132"/>
+      <selection pane="bottomLeft" activeCell="P1121" sqref="P1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -57980,7 +57985,7 @@
         <v>27</v>
       </c>
       <c r="O1059" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="P1059" t="s">
         <v>2805</v>
@@ -58300,7 +58305,7 @@
         <v>2804</v>
       </c>
       <c r="P1066" t="s">
-        <v>2805</v>
+        <v>2965</v>
       </c>
       <c r="Q1066" t="s">
         <v>321</v>
@@ -58335,10 +58340,10 @@
         <v>321</v>
       </c>
       <c r="O1067" t="s">
-        <v>2831</v>
+        <v>2963</v>
       </c>
       <c r="P1067" t="s">
-        <v>2832</v>
+        <v>2967</v>
       </c>
       <c r="Q1067" t="s">
         <v>321</v>
@@ -58379,10 +58384,10 @@
         <v>27</v>
       </c>
       <c r="O1068" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="P1068" t="s">
-        <v>2805</v>
+        <v>2966</v>
       </c>
       <c r="Q1068" t="s">
         <v>321</v>
@@ -58417,10 +58422,10 @@
         <v>321</v>
       </c>
       <c r="O1069" t="s">
-        <v>2834</v>
+        <v>2964</v>
       </c>
       <c r="P1069" t="s">
-        <v>2835</v>
+        <v>2968</v>
       </c>
       <c r="Q1069" t="s">
         <v>321</v>
@@ -58461,10 +58466,10 @@
         <v>27</v>
       </c>
       <c r="O1070" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="P1070" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="Q1070" t="s">
         <v>332</v>
@@ -58499,10 +58504,10 @@
         <v>6</v>
       </c>
       <c r="O1071" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="P1071" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="Q1071" t="s">
         <v>332</v>
@@ -58514,7 +58519,7 @@
         <v>197</v>
       </c>
       <c r="W1071" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1072" spans="1:23" x14ac:dyDescent="0.4">
@@ -58534,22 +58539,22 @@
         <v>189</v>
       </c>
       <c r="G1072" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="H1072" t="s">
         <v>35</v>
       </c>
       <c r="I1072" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="J1072" t="s">
         <v>191</v>
       </c>
       <c r="O1072" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="P1072" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="Q1072" t="s">
         <v>332</v>
@@ -58561,7 +58566,7 @@
         <v>592</v>
       </c>
       <c r="W1072" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1073" spans="1:23" x14ac:dyDescent="0.4">
@@ -58581,22 +58586,22 @@
         <v>189</v>
       </c>
       <c r="G1073" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="H1073" t="s">
         <v>35</v>
       </c>
       <c r="I1073" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="J1073" t="s">
         <v>191</v>
       </c>
       <c r="O1073" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="P1073" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="Q1073" t="s">
         <v>332</v>
@@ -58608,7 +58613,7 @@
         <v>197</v>
       </c>
       <c r="W1073" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1074" spans="1:23" x14ac:dyDescent="0.4">
@@ -58637,10 +58642,10 @@
         <v>27</v>
       </c>
       <c r="O1074" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
       <c r="P1074" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="Q1074" t="s">
         <v>1475</v>
@@ -58663,22 +58668,22 @@
         <v>29</v>
       </c>
       <c r="G1075" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="H1075" t="s">
         <v>26</v>
       </c>
       <c r="I1075" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="L1075" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="O1075" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="P1075" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="Q1075" t="s">
         <v>1475</v>
@@ -58704,22 +58709,22 @@
         <v>29</v>
       </c>
       <c r="G1076" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="H1076" t="s">
         <v>35</v>
       </c>
       <c r="I1076" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="L1076" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="O1076" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="P1076" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="Q1076" t="s">
         <v>1475</v>
@@ -58745,22 +58750,22 @@
         <v>29</v>
       </c>
       <c r="G1077" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="H1077" t="s">
         <v>35</v>
       </c>
       <c r="I1077" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="L1077" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="O1077" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="P1077" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="Q1077" t="s">
         <v>1475</v>
@@ -58786,22 +58791,22 @@
         <v>29</v>
       </c>
       <c r="G1078" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="H1078" t="s">
         <v>35</v>
       </c>
       <c r="I1078" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="L1078" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="O1078" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="P1078" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="Q1078" t="s">
         <v>1475</v>
@@ -58818,7 +58823,7 @@
         <v>2746</v>
       </c>
       <c r="D1079" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="E1079">
         <v>0</v>
@@ -58827,7 +58832,7 @@
         <v>25</v>
       </c>
       <c r="G1079" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="H1079" t="s">
         <v>52</v>
@@ -58836,13 +58841,13 @@
         <v>27</v>
       </c>
       <c r="O1079" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="P1079" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="Q1079" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1080" spans="1:23" x14ac:dyDescent="0.4">
@@ -58853,7 +58858,7 @@
         <v>2746</v>
       </c>
       <c r="D1080" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="E1080">
         <v>1</v>
@@ -58874,16 +58879,16 @@
         <v>175</v>
       </c>
       <c r="O1080" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="P1080" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="Q1080" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="W1080" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1081" spans="1:23" x14ac:dyDescent="0.4">
@@ -58894,7 +58899,7 @@
         <v>2746</v>
       </c>
       <c r="D1081" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="E1081">
         <v>2</v>
@@ -58903,7 +58908,7 @@
         <v>29</v>
       </c>
       <c r="G1081" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="H1081" t="s">
         <v>26</v>
@@ -58912,19 +58917,19 @@
         <v>1041</v>
       </c>
       <c r="L1081" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="O1081" t="s">
         <v>1508</v>
       </c>
       <c r="P1081" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="Q1081" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="W1081" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="1082" spans="1:23" x14ac:dyDescent="0.4">
@@ -58935,7 +58940,7 @@
         <v>2746</v>
       </c>
       <c r="D1082" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="E1082">
         <v>3</v>
@@ -58950,7 +58955,7 @@
         <v>35</v>
       </c>
       <c r="I1082" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="L1082" t="s">
         <v>1410</v>
@@ -58959,13 +58964,13 @@
         <v>1411</v>
       </c>
       <c r="P1082" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="Q1082" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="W1082" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1083" spans="1:23" x14ac:dyDescent="0.4">
@@ -58994,10 +58999,10 @@
         <v>27</v>
       </c>
       <c r="O1083" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="P1083" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="Q1083" t="s">
         <v>1727</v>
@@ -59020,22 +59025,22 @@
         <v>29</v>
       </c>
       <c r="G1084" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="H1084" t="s">
         <v>26</v>
       </c>
       <c r="I1084" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="L1084" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="O1084" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="P1084" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="Q1084" t="s">
         <v>1727</v>
@@ -59061,22 +59066,22 @@
         <v>29</v>
       </c>
       <c r="G1085" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="H1085" t="s">
         <v>35</v>
       </c>
       <c r="I1085" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="L1085" t="s">
+        <v>2879</v>
+      </c>
+      <c r="O1085" t="s">
         <v>2883</v>
       </c>
-      <c r="O1085" t="s">
-        <v>2887</v>
-      </c>
       <c r="P1085" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="Q1085" t="s">
         <v>1727</v>
@@ -59102,22 +59107,22 @@
         <v>29</v>
       </c>
       <c r="G1086" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="H1086" t="s">
         <v>35</v>
       </c>
       <c r="I1086" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="L1086" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="O1086" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="P1086" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="Q1086" t="s">
         <v>1727</v>
@@ -59143,22 +59148,22 @@
         <v>29</v>
       </c>
       <c r="G1087" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="H1087" t="s">
         <v>35</v>
       </c>
       <c r="I1087" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="L1087" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="O1087" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="P1087" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="Q1087" t="s">
         <v>1727</v>
@@ -59175,7 +59180,7 @@
         <v>2746</v>
       </c>
       <c r="D1088" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="E1088">
         <v>0</v>
@@ -59184,7 +59189,7 @@
         <v>25</v>
       </c>
       <c r="G1088" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="H1088" t="s">
         <v>52</v>
@@ -59193,13 +59198,13 @@
         <v>27</v>
       </c>
       <c r="O1088" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="P1088" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="Q1088" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1089" spans="1:23" x14ac:dyDescent="0.4">
@@ -59210,7 +59215,7 @@
         <v>2746</v>
       </c>
       <c r="D1089" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="E1089">
         <v>1</v>
@@ -59231,16 +59236,16 @@
         <v>175</v>
       </c>
       <c r="O1089" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="P1089" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="Q1089" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="W1089" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1090" spans="1:23" x14ac:dyDescent="0.4">
@@ -59251,7 +59256,7 @@
         <v>2746</v>
       </c>
       <c r="D1090" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="E1090">
         <v>2</v>
@@ -59260,7 +59265,7 @@
         <v>29</v>
       </c>
       <c r="G1090" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="H1090" t="s">
         <v>26</v>
@@ -59272,16 +59277,16 @@
         <v>1764</v>
       </c>
       <c r="O1090" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="P1090" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="Q1090" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="W1090" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="1091" spans="1:23" x14ac:dyDescent="0.4">
@@ -59292,7 +59297,7 @@
         <v>2746</v>
       </c>
       <c r="D1091" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="E1091">
         <v>3</v>
@@ -59307,7 +59312,7 @@
         <v>35</v>
       </c>
       <c r="I1091" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="L1091" t="s">
         <v>1410</v>
@@ -59316,13 +59321,13 @@
         <v>1411</v>
       </c>
       <c r="P1091" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="Q1091" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="W1091" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1092" spans="1:23" x14ac:dyDescent="0.4">
@@ -59351,10 +59356,10 @@
         <v>27</v>
       </c>
       <c r="O1092" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="P1092" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="Q1092" t="s">
         <v>1118</v>
@@ -59377,7 +59382,7 @@
         <v>29</v>
       </c>
       <c r="G1093" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="H1093" t="s">
         <v>26</v>
@@ -59389,10 +59394,10 @@
         <v>1183</v>
       </c>
       <c r="O1093" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="P1093" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="Q1093" t="s">
         <v>1118</v>
@@ -59424,22 +59429,22 @@
         <v>29</v>
       </c>
       <c r="G1094" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="H1094" t="s">
         <v>26</v>
       </c>
       <c r="I1094" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="L1094" t="s">
         <v>1183</v>
       </c>
       <c r="O1094" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="P1094" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="Q1094" t="s">
         <v>1118</v>
@@ -59451,7 +59456,7 @@
         <v>345</v>
       </c>
       <c r="W1094" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1095" spans="1:23" x14ac:dyDescent="0.4">
@@ -59471,22 +59476,22 @@
         <v>29</v>
       </c>
       <c r="G1095" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="H1095" t="s">
         <v>26</v>
       </c>
       <c r="I1095" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="L1095" t="s">
         <v>1183</v>
       </c>
       <c r="O1095" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="P1095" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="Q1095" t="s">
         <v>1118</v>
@@ -59498,7 +59503,7 @@
         <v>345</v>
       </c>
       <c r="W1095" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1096" spans="1:23" x14ac:dyDescent="0.4">
@@ -59518,22 +59523,22 @@
         <v>29</v>
       </c>
       <c r="G1096" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="H1096" t="s">
         <v>26</v>
       </c>
       <c r="I1096" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="L1096" t="s">
         <v>1183</v>
       </c>
       <c r="O1096" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="P1096" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="Q1096" t="s">
         <v>1118</v>
@@ -59571,10 +59576,10 @@
         <v>27</v>
       </c>
       <c r="O1097" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="P1097" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1098" spans="1:23" x14ac:dyDescent="0.4">
@@ -59594,22 +59599,22 @@
         <v>189</v>
       </c>
       <c r="G1098" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="H1098" t="s">
         <v>26</v>
       </c>
       <c r="I1098" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="J1098" t="s">
         <v>341</v>
       </c>
       <c r="O1098" t="s">
+        <v>2911</v>
+      </c>
+      <c r="P1098" t="s">
         <v>2915</v>
-      </c>
-      <c r="P1098" t="s">
-        <v>2919</v>
       </c>
       <c r="U1098" t="s">
         <v>344</v>
@@ -59635,22 +59640,22 @@
         <v>213</v>
       </c>
       <c r="G1099" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="H1099" t="s">
         <v>35</v>
       </c>
       <c r="I1099" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="N1099" t="s">
         <v>159</v>
       </c>
       <c r="O1099" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="P1099" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="U1099" t="s">
         <v>186</v>
@@ -59667,7 +59672,7 @@
         <v>2746</v>
       </c>
       <c r="D1100" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="E1100">
         <v>0</v>
@@ -59676,7 +59681,7 @@
         <v>25</v>
       </c>
       <c r="G1100" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="H1100" t="s">
         <v>52</v>
@@ -59685,13 +59690,13 @@
         <v>27</v>
       </c>
       <c r="O1100" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="P1100" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="Q1100" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1101" spans="1:23" x14ac:dyDescent="0.4">
@@ -59702,7 +59707,7 @@
         <v>2746</v>
       </c>
       <c r="D1101" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="E1101">
         <v>1</v>
@@ -59711,25 +59716,25 @@
         <v>189</v>
       </c>
       <c r="G1101" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="H1101" t="s">
         <v>26</v>
       </c>
       <c r="I1101" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="J1101" t="s">
         <v>341</v>
       </c>
       <c r="O1101" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="P1101" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="Q1101" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="U1101" t="s">
         <v>344</v>
@@ -59738,7 +59743,7 @@
         <v>345</v>
       </c>
       <c r="W1101" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1102" spans="1:23" x14ac:dyDescent="0.4">
@@ -59749,7 +59754,7 @@
         <v>2746</v>
       </c>
       <c r="D1102" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="E1102">
         <v>2</v>
@@ -59758,25 +59763,25 @@
         <v>213</v>
       </c>
       <c r="G1102" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="H1102" t="s">
         <v>35</v>
       </c>
       <c r="I1102" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="N1102" t="s">
         <v>159</v>
       </c>
       <c r="O1102" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="P1102" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="Q1102" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="U1102" t="s">
         <v>186</v>
@@ -59785,7 +59790,7 @@
         <v>564</v>
       </c>
       <c r="W1102" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1103" spans="1:23" x14ac:dyDescent="0.4">
@@ -59814,10 +59819,10 @@
         <v>27</v>
       </c>
       <c r="O1103" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="P1103" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="Q1103" t="s">
         <v>745</v>
@@ -59840,7 +59845,7 @@
         <v>180</v>
       </c>
       <c r="G1104" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="H1104" t="s">
         <v>35</v>
@@ -59852,7 +59857,7 @@
         <v>183</v>
       </c>
       <c r="O1104" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="Q1104" t="s">
         <v>745</v>
@@ -59887,10 +59892,10 @@
         <v>191</v>
       </c>
       <c r="O1105" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="P1105" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="Q1105" t="s">
         <v>745</v>
@@ -59925,10 +59930,10 @@
         <v>230</v>
       </c>
       <c r="O1106" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="P1106" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="Q1106" t="s">
         <v>745</v>
@@ -59954,22 +59959,22 @@
         <v>189</v>
       </c>
       <c r="G1107" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="H1107" t="s">
         <v>35</v>
       </c>
       <c r="I1107" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="J1107" t="s">
         <v>191</v>
       </c>
       <c r="O1107" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="P1107" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="Q1107" t="s">
         <v>745</v>
@@ -59995,22 +60000,22 @@
         <v>189</v>
       </c>
       <c r="G1108" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="H1108" t="s">
         <v>35</v>
       </c>
       <c r="I1108" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="J1108" t="s">
         <v>191</v>
       </c>
       <c r="O1108" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="P1108" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="Q1108" t="s">
         <v>745</v>
@@ -60048,10 +60053,10 @@
         <v>191</v>
       </c>
       <c r="O1109" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="P1109" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="Q1109" t="s">
         <v>745</v>
@@ -60086,10 +60091,10 @@
         <v>27</v>
       </c>
       <c r="O1110" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="P1110" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="Q1110" t="s">
         <v>780</v>
@@ -60124,7 +60129,7 @@
         <v>1175</v>
       </c>
       <c r="P1111" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="Q1111" t="s">
         <v>780</v>
@@ -60165,7 +60170,7 @@
         <v>944</v>
       </c>
       <c r="P1112" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="Q1112" t="s">
         <v>780</v>
@@ -60232,7 +60237,7 @@
         <v>213</v>
       </c>
       <c r="G1114" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="H1114" t="s">
         <v>35</v>
@@ -60244,7 +60249,7 @@
         <v>74</v>
       </c>
       <c r="O1114" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="P1114" t="s">
         <v>1643</v>
@@ -60288,7 +60293,7 @@
         <v>213</v>
       </c>
       <c r="G1115" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="H1115" t="s">
         <v>35</v>
@@ -60300,7 +60305,7 @@
         <v>74</v>
       </c>
       <c r="O1115" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="P1115" t="s">
         <v>1643</v>
@@ -60353,10 +60358,10 @@
         <v>27</v>
       </c>
       <c r="O1116" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="P1116" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1117" spans="1:23" x14ac:dyDescent="0.4">
@@ -60382,16 +60387,16 @@
         <v>26</v>
       </c>
       <c r="I1117" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="J1117" t="s">
         <v>341</v>
       </c>
       <c r="O1117" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="P1117" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="U1117" t="s">
         <v>344</v>
@@ -60423,16 +60428,16 @@
         <v>35</v>
       </c>
       <c r="I1118" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="N1118" t="s">
         <v>159</v>
       </c>
       <c r="O1118" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="P1118" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="U1118" t="s">
         <v>186</v>
@@ -60458,7 +60463,7 @@
         <v>25</v>
       </c>
       <c r="G1119" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="H1119" t="s">
         <v>52</v>
@@ -60467,7 +60472,7 @@
         <v>27</v>
       </c>
       <c r="O1119" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1120" spans="1:23" x14ac:dyDescent="0.4">
@@ -60487,35 +60492,35 @@
         <v>189</v>
       </c>
       <c r="G1120" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="H1120" t="s">
         <v>52</v>
       </c>
       <c r="I1120" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="J1120" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="O1120" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:W1048576">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"RFBIE"=$F1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>"ASBIE"=$F1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"IDBIE"=$F1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"ABIE"=$F1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3831C24-70B7-4C98-9368-80E3FADE0EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE3E108-D2DA-4EAE-A799-724C746B242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9920,9 +9920,9 @@
   <dimension ref="A1:W1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1082" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A1120"/>
+      <selection pane="bottomLeft" activeCell="B1094" sqref="B1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE3E108-D2DA-4EAE-A799-724C746B242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A9FAC-8C8E-4AE0-95EA-064144E4E969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9922,7 +9922,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B1094" sqref="B1094"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10115,7 +10115,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -10147,7 +10147,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -10179,7 +10179,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/data/adcs/list-adcs.xlsx
+++ b/data/adcs/list-adcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\OneDrive\ドキュメント\GitHub\Standard_Formats\data\adcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A9FAC-8C8E-4AE0-95EA-064144E4E969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DCB49-B67D-4DDA-9CAD-B1876BA40A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="0" windowWidth="25275" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9919,10 +9919,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E7"/>
+      <selection pane="bottomLeft" activeCell="I470" sqref="I470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10874,7 +10874,7 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -10883,7 +10883,7 @@
         <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
@@ -10892,7 +10892,7 @@
         <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
@@ -10903,7 +10903,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10912,7 +10912,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -10921,10 +10921,10 @@
         <v>31</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="P30" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
@@ -10935,7 +10935,7 @@
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -10953,10 +10953,10 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="P31" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
@@ -10967,7 +10967,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -10976,7 +10976,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -10985,10 +10985,10 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="P32" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
@@ -10999,16 +10999,16 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -11017,10 +11017,10 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="P33" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
@@ -11031,16 +11031,16 @@
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -11049,10 +11049,10 @@
         <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="P34" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
@@ -11063,16 +11063,16 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -11081,10 +11081,10 @@
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="P35" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
@@ -11095,16 +11095,16 @@
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -11113,10 +11113,10 @@
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="P36" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
@@ -11127,16 +11127,16 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -11145,10 +11145,10 @@
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="P37" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
@@ -11159,16 +11159,16 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -11177,10 +11177,10 @@
         <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="P38" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
@@ -11191,16 +11191,16 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -11209,10 +11209,10 @@
         <v>31</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="P39" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
@@ -11226,25 +11226,22 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
@@ -11258,13 +11255,13 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -11273,10 +11270,10 @@
         <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="P41" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
@@ -11290,13 +11287,13 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -11305,10 +11302,10 @@
         <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
@@ -11322,13 +11319,13 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -11337,10 +11334,10 @@
         <v>31</v>
       </c>
       <c r="L43" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
@@ -11351,25 +11348,28 @@
         <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="L44" t="s">
+        <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
@@ -11380,16 +11380,16 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -11398,10 +11398,10 @@
         <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
@@ -11412,16 +11412,16 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -11430,10 +11430,10 @@
         <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="P46" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
@@ -11444,16 +11444,16 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
@@ -11462,10 +11462,10 @@
         <v>31</v>
       </c>
       <c r="L47" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="P47" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
@@ -11476,16 +11476,16 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H48" t="s">
         <v>52</v>
@@ -11494,10 +11494,10 @@
         <v>31</v>
       </c>
       <c r="L48" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="P48" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
@@ -11508,16 +11508,16 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
         <v>52</v>
@@ -11526,10 +11526,10 @@
         <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="P49" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
@@ -11540,16 +11540,16 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H50" t="s">
         <v>52</v>
@@ -11558,10 +11558,10 @@
         <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="P50" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
@@ -11572,16 +11572,16 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H51" t="s">
         <v>52</v>
@@ -11590,10 +11590,10 @@
         <v>31</v>
       </c>
       <c r="L51" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
@@ -11604,16 +11604,16 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H52" t="s">
         <v>52</v>
@@ -11622,10 +11622,10 @@
         <v>31</v>
       </c>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="P52" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
@@ -11636,16 +11636,16 @@
         <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
         <v>52</v>
@@ -11654,10 +11654,10 @@
         <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
@@ -11668,16 +11668,16 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -11686,10 +11686,10 @@
         <v>31</v>
       </c>
       <c r="L54" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="P54" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
@@ -11703,25 +11703,22 @@
         <v>42</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="P55" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
@@ -11735,13 +11732,13 @@
         <v>42</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
         <v>52</v>
@@ -11750,10 +11747,10 @@
         <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
@@ -11767,13 +11764,13 @@
         <v>42</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H57" t="s">
         <v>52</v>
@@ -11782,10 +11779,10 @@
         <v>31</v>
       </c>
       <c r="L57" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
@@ -11799,13 +11796,13 @@
         <v>42</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H58" t="s">
         <v>52</v>
@@ -11814,10 +11811,10 @@
         <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="P58" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
@@ -11831,13 +11828,13 @@
         <v>42</v>
       </c>
       <c r="E59">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H59" t="s">
         <v>52</v>
@@ -11846,10 +11843,10 @@
         <v>31</v>
       </c>
       <c r="L59" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
@@ -11863,13 +11860,13 @@
         <v>42</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H60" t="s">
         <v>52</v>
@@ -11878,10 +11875,10 @@
         <v>31</v>
       </c>
       <c r="L60" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
@@ -11895,13 +11892,13 @@
         <v>42</v>
       </c>
       <c r="E61">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="H61" t="s">
         <v>52</v>
@@ -11910,10 +11907,10 @@
         <v>31</v>
       </c>
       <c r="L61" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
@@ -11927,13 +11924,13 @@
         <v>42</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H62" t="s">
         <v>52</v>
@@ -11942,10 +11939,10 @@
         <v>31</v>
       </c>
       <c r="L62" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
@@ -11959,13 +11956,13 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="H63" t="s">
         <v>52</v>
@@ -11974,10 +11971,10 @@
         <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
@@ -11988,25 +11985,28 @@
         <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="H64" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="L64" t="s">
+        <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.4">
@@ -12017,16 +12017,16 @@
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H65" t="s">
         <v>52</v>
@@ -12035,10 +12035,10 @@
         <v>31</v>
       </c>
       <c r="L65" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.4">
@@ -12049,16 +12049,16 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H66" t="s">
         <v>52</v>
@@ -12067,10 +12067,10 @@
         <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.4">
@@ -12081,16 +12081,16 @@
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H67" t="s">
         <v>52</v>
@@ -12099,10 +12099,10 @@
         <v>31</v>
       </c>
       <c r="L67" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.4">
@@ -12113,16 +12113,16 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H68" t="s">
         <v>52</v>
@@ -12131,10 +12131,10 @@
         <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.4">
@@ -12145,16 +12145,16 @@
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H69" t="s">
         <v>52</v>
@@ -12163,10 +12163,10 @@
         <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.4">
@@ -12177,16 +12177,16 @@
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H70" t="s">
         <v>52</v>
@@ -12195,10 +12195,10 @@
         <v>31</v>
       </c>
       <c r="L70" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.4">
@@ -12209,16 +12209,16 @@
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H71" t="s">
         <v>52</v>
@@ -12227,10 +12227,10 @@
         <v>31</v>
       </c>
       <c r="L71" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="P71" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.4">
@@ -12241,16 +12241,16 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E72">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H72" t="s">
         <v>52</v>
@@ -12259,10 +12259,10 @@
         <v>31</v>
       </c>
       <c r="L72" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="P72" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.4">
@@ -12273,16 +12273,16 @@
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H73" t="s">
         <v>52</v>
@@ -12291,10 +12291,10 @@
         <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P73" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.4">
@@ -12305,16 +12305,16 @@
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E74">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H74" t="s">
         <v>52</v>
@@ -12323,10 +12323,10 @@
         <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="P74" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.4">
